--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/DataBars_05_03.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter05/DataBars_05_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3290C37-232C-4D8B-9B31-812A9F8E9D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1F8BF9-84D5-448B-9771-3EF434DDF981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -799,7 +799,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -848,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,10 +862,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4889,7 +4889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -5354,8 +5354,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="field" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="5" count="0" selected="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleMedium8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5391,7 +5405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5693,7 +5707,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -5847,8 +5861,39 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4C7DBB5F-7032-4533-BE79-703B49C60ABE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{4C7DBB5F-7032-4533-BE79-703B49C60ABE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5:B11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5860,7 +5905,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
